--- a/biology/Médecine/Narcoanalyse/Narcoanalyse.xlsx
+++ b/biology/Médecine/Narcoanalyse/Narcoanalyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La narcoanalyse (ou narco-analyse) consiste à injecter un anesthésique (notamment des barbituriques comme l'amobarbital, le penthotal ou thiopental) pour faciliter le rappel de souvenirs réprimés. Utilisée à partir des années 1930 pour faciliter le traitement des traumatismes psychiques de guerre[1] ou comme « sérum de vérité », la narcoanalyse a connu une certaine popularité dans l'immédiat après-guerre. Elle est aujourd'hui largement abandonnée et son utilisation dans le cadre de la psychologie judiciaire a été vivement critiquée à la fin des années 1950[2].
-Malgré tout certains États prévoient encore son emploi[3] et les tribunaux ont eu à en connaitre dans les années 1980[4]. Un manuel de 1997 l'envisage aussi sérieusement[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La narcoanalyse (ou narco-analyse) consiste à injecter un anesthésique (notamment des barbituriques comme l'amobarbital, le penthotal ou thiopental) pour faciliter le rappel de souvenirs réprimés. Utilisée à partir des années 1930 pour faciliter le traitement des traumatismes psychiques de guerre ou comme « sérum de vérité », la narcoanalyse a connu une certaine popularité dans l'immédiat après-guerre. Elle est aujourd'hui largement abandonnée et son utilisation dans le cadre de la psychologie judiciaire a été vivement critiquée à la fin des années 1950.
+Malgré tout certains États prévoient encore son emploi et les tribunaux ont eu à en connaitre dans les années 1980. Un manuel de 1997 l'envisage aussi sérieusement.
 </t>
         </is>
       </c>
